--- a/biology/Médecine/Liste_de_savants_fous/Liste_de_savants_fous.xlsx
+++ b/biology/Médecine/Liste_de_savants_fous/Liste_de_savants_fous.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste de savants fous regroupe des personnages de fiction illustrant le « savant fou », lieu commun et stéréotype des œuvres de fiction populaires, qui peut être distrait et inoffensif (comme les professeurs Nimbus ou Tournesol) ou au contraire méchants et dangereux (comme les docteurs Jekyll dans sa personnalité de M. Hyde, Mabuse ou Folamour).
 </t>
@@ -511,7 +523,9 @@
           <t>Littérature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Faust, héros d'un conte populaire allemand du XVIe siècle, apparaissant dans de nombreuses œuvres postérieures. L'histoire raconte le destin d'un savant, Faust, déçu par l'aporie à laquelle le condamne son art, contractant un pacte avec le Diable.
 Les savants de l'île volante de Laputa dans Les Voyages de Gulliver de l'Irlandais Jonathan Swift (1721).
@@ -568,7 +582,9 @@
           <t>Série</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Davros dans Doctor Who est un mégalomane qui croit que par ses créations, les Daleks, il peut devenir le maître suprême de l'univers. Il est un scientifique brillant qui a démontré la maîtrise de robotique, la métallurgie, la chimie, l'intelligence artificielle, le clonage, le génie génétique, la biologie, la physique, la tactique militaire et la cybernétique.
 Le Docteur Cowembé dans Chuck (série télévisée) qui travaille pour L'Alliance et ayant fait des recherches sur la régénération Cellulaire et le Docteur Wheelwhright qui a conçu une toxine faisant faire des visions d'horreur.
@@ -601,7 +617,9 @@
           <t>Films</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le docteur Caligari, dans Le Cabinet du docteur Caligari, par l'Allemand Robert Wiene (1919).
 Le docteur Warren, dans Le Crime du docteur Warren de l'Allemand Friedrich Wilhelm Murnau (1920). Librement inspiré de Docteur Jekyll et M. Hyde, le film met en scène ce scientifique se transformant involontairement en une monstrueuse créature du nom de Mr. O'Connor, commettant des crimes, à cause d'un buste de Janus.
@@ -665,7 +683,9 @@
           <t>Bandes dessinées</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Aventures du Professeur Nimbus.
 Dans l'univers d'Hergé :
@@ -731,7 +751,9 @@
           <t>Comics</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Plusieurs ennemis de Superman :
 Lex Luthor, par Jerry Siegel et Joe Shuster.
@@ -776,7 +798,9 @@
           <t>Mangas et animés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le Docteur Tenma dans Astro, le petit robot, par Osamu Tezuka (1952).
 Le Docteur Saruta et le Docteur Weekday dans Phénix, également par Osamu Tezuka (1967).
@@ -822,7 +846,9 @@
           <t>Dessins animés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le Professeur Frink dans Les Simpson
 Anton Sevarius dans Gargoyles, les anges de la nuit
@@ -869,7 +895,9 @@
           <t>Jeux vidéo</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le docteur Albert W. Wily, de la série Mega Man par Keiji Inafune (1987).
 Le docteur Fred Edison, dans Maniac Mansion par Ron Gilbert (1987) et Maniac Mansion: Day of the Tentacle par Dave Grossman et Tim Schafer (1993).
